--- a/Data/Output/Results.xlsx
+++ b/Data/Output/Results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <x:si>
     <x:t>Mail_Address</x:t>
   </x:si>
@@ -34,6 +34,9 @@
     <x:t>Reason</x:t>
   </x:si>
   <x:si>
+    <x:t>Process Time</x:t>
+  </x:si>
+  <x:si>
     <x:t>lucille@sitter.com</x:t>
   </x:si>
   <x:si>
@@ -43,7 +46,64 @@
     <x:t>Success</x:t>
   </x:si>
   <x:si>
-    <x:t>Icon, avater, URL found</x:t>
+    <x:t>Login Successful</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mwaniki@test.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123456789St</x:t>
+  </x:si>
+  <x:si>
+    <x:t>peninawaithaka@thejitu.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Password321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Invalid Password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234567890St</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Passwod321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lucille@sitter,com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Could not find user with the given user name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mwaniki@tet.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>peninawaithaka.thejitu.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273878dy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mwani@kitest.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3840158945k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Peninawaithaka@thejitu.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90-341-49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N/A</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -53,7 +113,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
+  <x:fonts count="3" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -62,19 +122,44 @@
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="5">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.39997558519241921"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.59999389629810485"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
     </x:fill>
   </x:fills>
   <x:borders count="1">
@@ -86,16 +171,87 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="1" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="1" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="20">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="46" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="46" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -381,47 +537,992 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D1"/>
+  <x:dimension ref="A1:E47"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <x:selection activeCell="G42" sqref="G42 G42:G42"/>
+    </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="1" width="19.109375" style="2" customWidth="1"/>
-    <x:col min="2" max="2" width="12.554688" style="2" customWidth="1"/>
-    <x:col min="3" max="3" width="12.664062" style="2" customWidth="1"/>
-    <x:col min="4" max="4" width="23.332031" style="2" customWidth="1"/>
+    <x:col min="1" max="1" width="30.664062" style="10" customWidth="1"/>
+    <x:col min="2" max="2" width="20.109375" style="10" customWidth="1"/>
+    <x:col min="3" max="3" width="12.664062" style="10" customWidth="1"/>
+    <x:col min="4" max="4" width="32" style="10" customWidth="1"/>
+    <x:col min="5" max="5" width="18.109375" style="10" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="2" t="s">
+    <x:row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="13" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+      <x:c r="B1" s="13" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="2" t="s">
+      <x:c r="C1" s="13" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="2" t="s">
+      <x:c r="D1" s="13" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="2" t="s">
+      <x:c r="E1" s="13" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+    </x:row>
+    <x:row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="B2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s">
+      <x:c r="C2" s="10" t="s">
         <x:v>7</x:v>
       </x:c>
+      <x:c r="D2" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B3" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="10" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B4" s="10" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C4" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="10" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D5" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B6" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D6" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="10" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B7" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C7" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D7" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B8" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C8" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D8" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B9" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C9" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D9" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="10" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B10" s="10" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C10" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D10" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B11" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C11" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D11" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B12" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C12" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D12" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="10" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B13" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C13" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D13" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B14" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C14" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D14" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E14" s="14" t="n">
+        <x:v>0.000253344907407407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B15" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C15" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D15" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E15" s="14" t="n">
+        <x:v>0.0002225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B16" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C16" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D16" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E16" s="14" t="n">
+        <x:v>0.000225300925925926</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A17" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B17" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C17" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D17" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E17" s="14" t="n">
+        <x:v>0.000225856481481481</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="15" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B18" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C18" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D18" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E18" s="14" t="n">
+        <x:v>0.000497824074074074</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="10" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B19" s="10" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C19" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D19" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E19" s="14" t="n">
+        <x:v>0.000247118055555556</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B20" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C20" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D20" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E20" s="14" t="n">
+        <x:v>0.000543541666666667</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B21" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C21" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D21" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E21" s="14" t="n">
+        <x:v>0.000537349537037037</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A22" s="10" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B22" s="10" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C22" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D22" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E22" s="14" t="n">
+        <x:v>0.0002046875</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A23" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B23" s="10" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C23" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D23" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E23" s="14" t="n">
+        <x:v>0.000847766203703704</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A24" s="16" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B24" s="16" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C24" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D24" s="16" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E24" s="17" t="n">
+        <x:v>0.00027681712962963</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A25" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B25" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C25" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D25" s="16" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E25" s="17" t="n">
+        <x:v>0.000242094907407407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A26" s="16" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B26" s="16" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C26" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D26" s="16" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E26" s="17" t="n">
+        <x:v>0.000195219907407407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A27" s="16" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B27" s="16" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C27" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D27" s="16" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E27" s="17" t="n">
+        <x:v>0.000261851851851852</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A28" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B28" s="16" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C28" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D28" s="16" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E28" s="17" t="n">
+        <x:v>0.000264502314814815</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A29" s="16" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B29" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C29" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D29" s="16" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E29" s="17" t="n">
+        <x:v>0.000261539351851852</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A30" s="16" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B30" s="16" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C30" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D30" s="16" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E30" s="17" t="n">
+        <x:v>0.000321967592592593</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A31" s="16" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B31" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C31" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D31" s="16" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E31" s="17" t="n">
+        <x:v>0.000322384259259259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A32" s="16" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B32" s="16" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C32" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D32" s="16" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E32" s="17" t="n">
+        <x:v>0.000321967592592593</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A33" s="16" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B33" s="16" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C33" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D33" s="16" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E33" s="17" t="n">
+        <x:v>0.000320208333333333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A34" s="16" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B34" s="16" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C34" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D34" s="16" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E34" s="17" t="n">
+        <x:v>0.000320613425925926</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A35" s="16" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B35" s="16" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C35" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D35" s="16" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E35" s="17" t="n">
+        <x:v>0.000261527777777778</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A36" s="11" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B36" s="11" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C36" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D36" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E36" s="18" t="n">
+        <x:v>0.00028625</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A37" s="11" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B37" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C37" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D37" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E37" s="12" t="n">
+        <x:v>0.000264571759259259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A38" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B38" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C38" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D38" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E38" s="12" t="n">
+        <x:v>0.000215219907407407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A39" s="11" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B39" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C39" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D39" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E39" s="12" t="n">
+        <x:v>0.000280983796296296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A40" s="11" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B40" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C40" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D40" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E40" s="12" t="n">
+        <x:v>0.000284710648148148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A41" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B41" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C41" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D41" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E41" s="12" t="n">
+        <x:v>0.000282164351851852</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A42" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B42" s="11" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C42" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D42" s="11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E42" s="12" t="n">
+        <x:v>0.000343738425925926</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A43" s="11" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B43" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C43" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D43" s="11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E43" s="12" t="n">
+        <x:v>0.00034369212962963</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A44" s="11" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B44" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C44" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D44" s="11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E44" s="12" t="n">
+        <x:v>0.000341828703703704</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A45" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B45" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C45" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D45" s="11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E45" s="12" t="n">
+        <x:v>0.000339479166666667</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A46" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B46" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C46" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D46" s="11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E46" s="12" t="n">
+        <x:v>0.000341365740740741</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A47" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B47" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C47" s="11" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D47" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E47" s="12" t="n">
+        <x:v>0.000281122685185185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:7">
+      <x:c r="A48" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B48" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C48" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D48" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E48" s="19" t="n">
+        <x:v>0.000274560185185185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:7">
+      <x:c r="A49" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B49" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C49" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D49" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E49" s="19" t="n">
+        <x:v>0.000266851851851852</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:7">
+      <x:c r="A50" s="10" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B50" s="10" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C50" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D50" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E50" s="19" t="n">
+        <x:v>0.000238969907407407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:7">
+      <x:c r="A51" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B51" s="10" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C51" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D51" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E51" s="19" t="n">
+        <x:v>0.000286261574074074</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:7">
+      <x:c r="A52" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B52" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C52" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D52" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E52" s="19" t="n">
+        <x:v>0.000284236111111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:7">
+      <x:c r="A53" s="10" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B53" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C53" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D53" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E53" s="19" t="n">
+        <x:v>0.000283576388888889</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:7">
+      <x:c r="A54" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B54" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C54" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D54" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E54" s="19" t="n">
+        <x:v>0.000345648148148148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:7">
+      <x:c r="A55" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B55" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C55" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D55" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E55" s="19" t="n">
+        <x:v>0.000345763888888889</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:7">
+      <x:c r="A56" s="10" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B56" s="10" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C56" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D56" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E56" s="19" t="n">
+        <x:v>0.000344097222222222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:7">
+      <x:c r="A57" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B57" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C57" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D57" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E57" s="19" t="n">
+        <x:v>0.000343043981481482</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:7">
+      <x:c r="A58" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B58" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C58" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D58" s="10" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E58" s="19" t="n">
+        <x:v>0.000345717592592593</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:7">
+      <x:c r="A59" s="10" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B59" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C59" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D59" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E59" s="19" t="n">
+        <x:v>0.00028380787037037</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="A18" r:id="rId6"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/Data/Output/Results.xlsx
+++ b/Data/Output/Results.xlsx
@@ -136,7 +136,7 @@
       <x:scheme val="minor"/>
     </x:font>
   </x:fonts>
-  <x:fills count="5">
+  <x:fills count="7">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -161,6 +161,18 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.39997558519241921"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.79998168889431442"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
   <x:borders count="1">
     <x:border>
@@ -171,42 +183,56 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="11">
+  <x:cellStyleXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="1" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="46" fontId="1" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="1" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="1" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="20">
+  <x:cellXfs count="28">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -215,43 +241,61 @@
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="46" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="46" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="46" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="46" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -537,986 +581,1445 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E47"/>
+  <x:dimension ref="A1:E74"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <x:selection activeCell="G42" sqref="G42 G42:G42"/>
+    <x:sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <x:selection activeCell="A75" sqref="A75 A75:A75"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="1" width="30.664062" style="10" customWidth="1"/>
-    <x:col min="2" max="2" width="20.109375" style="10" customWidth="1"/>
-    <x:col min="3" max="3" width="12.664062" style="10" customWidth="1"/>
-    <x:col min="4" max="4" width="32" style="10" customWidth="1"/>
-    <x:col min="5" max="5" width="18.109375" style="10" customWidth="1"/>
+    <x:col min="1" max="1" width="30.664062" style="14" customWidth="1"/>
+    <x:col min="2" max="2" width="20.109375" style="14" customWidth="1"/>
+    <x:col min="3" max="3" width="12.664062" style="14" customWidth="1"/>
+    <x:col min="4" max="4" width="32" style="14" customWidth="1"/>
+    <x:col min="5" max="5" width="18.109375" style="14" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="13" t="s">
+    <x:row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="16" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="13" t="s">
+      <x:c r="B1" s="16" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="13" t="s">
+      <x:c r="C1" s="16" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="13" t="s">
+      <x:c r="D1" s="16" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="13" t="s">
+      <x:c r="E1" s="16" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="10" t="s">
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="14" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C2" s="10" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D2" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="10" t="s">
+      <x:c r="C2" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="14" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="14" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B3" s="10" t="s">
+      <x:c r="B3" s="14" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C3" s="10" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="10" t="s">
+      <x:c r="C3" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="14" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="14" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B4" s="10" t="s">
+      <x:c r="B4" s="14" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C4" s="10" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D4" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="10" t="s">
+      <x:c r="C4" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="14" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="14" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D5" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="10" t="s">
+      <x:c r="C5" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D5" s="14" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="14" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B6" s="10" t="s">
+      <x:c r="B6" s="14" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C6" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D6" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="10" t="s">
+      <x:c r="C6" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D6" s="14" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="14" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B7" s="10" t="s">
+      <x:c r="B7" s="14" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C7" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D7" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="10" t="s">
+      <x:c r="C7" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D7" s="14" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B8" s="10" t="s">
+      <x:c r="B8" s="14" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C8" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D8" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="10" t="s">
+      <x:c r="C8" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D8" s="14" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="14" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B9" s="10" t="s">
+      <x:c r="B9" s="14" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C9" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D9" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A10" s="10" t="s">
+      <x:c r="C9" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D9" s="14" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="14" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B10" s="10" t="s">
+      <x:c r="B10" s="14" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C10" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D10" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A11" s="10" t="s">
+      <x:c r="C10" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D10" s="14" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B11" s="10" t="s">
+      <x:c r="B11" s="14" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C11" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D11" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A12" s="10" t="s">
+      <x:c r="C11" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D11" s="14" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="14" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B12" s="10" t="s">
+      <x:c r="B12" s="14" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C12" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D12" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A13" s="10" t="s">
+      <x:c r="C12" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D12" s="14" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="14" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B13" s="10" t="s">
+      <x:c r="B13" s="14" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C13" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D13" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A14" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B14" s="10" t="s">
+      <x:c r="C13" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D13" s="14" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B14" s="14" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C14" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D14" s="10" t="s">
+      <x:c r="C14" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D14" s="14" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E14" s="14" t="n">
+      <x:c r="E14" s="17" t="n">
         <x:v>0.000253344907407407</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A15" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B15" s="10" t="s">
+    <x:row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B15" s="14" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C15" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D15" s="10" t="s">
+      <x:c r="C15" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D15" s="14" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E15" s="14" t="n">
+      <x:c r="E15" s="17" t="n">
         <x:v>0.0002225</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A16" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B16" s="10" t="s">
+    <x:row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B16" s="14" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C16" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D16" s="10" t="s">
+      <x:c r="C16" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D16" s="14" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E16" s="14" t="n">
+      <x:c r="E16" s="17" t="n">
         <x:v>0.000225300925925926</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A17" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B17" s="10" t="s">
+    <x:row r="17" spans="1:5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A17" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B17" s="14" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C17" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D17" s="10" t="s">
+      <x:c r="C17" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D17" s="14" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E17" s="14" t="n">
+      <x:c r="E17" s="17" t="n">
         <x:v>0.000225856481481481</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A18" s="15" t="s">
+    <x:row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="18" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B18" s="10" t="s">
+      <x:c r="B18" s="14" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C18" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D18" s="10" t="s">
+      <x:c r="C18" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D18" s="14" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E18" s="14" t="n">
+      <x:c r="E18" s="17" t="n">
         <x:v>0.000497824074074074</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A19" s="10" t="s">
+    <x:row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="14" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B19" s="10" t="s">
+      <x:c r="B19" s="14" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C19" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D19" s="10" t="s">
+      <x:c r="C19" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D19" s="14" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E19" s="14" t="n">
+      <x:c r="E19" s="17" t="n">
         <x:v>0.000247118055555556</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A20" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B20" s="10" t="s">
+    <x:row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B20" s="14" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C20" s="10" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D20" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E20" s="14" t="n">
+      <x:c r="C20" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D20" s="14" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E20" s="17" t="n">
         <x:v>0.000543541666666667</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A21" s="10" t="s">
+    <x:row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="14" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B21" s="10" t="s">
+      <x:c r="B21" s="14" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C21" s="10" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D21" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E21" s="14" t="n">
+      <x:c r="C21" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D21" s="14" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E21" s="17" t="n">
         <x:v>0.000537349537037037</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A22" s="10" t="s">
+    <x:row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A22" s="14" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B22" s="10" t="s">
+      <x:c r="B22" s="14" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C22" s="10" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D22" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E22" s="14" t="n">
+      <x:c r="C22" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D22" s="14" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E22" s="17" t="n">
         <x:v>0.0002046875</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A23" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B23" s="10" t="s">
+    <x:row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A23" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B23" s="14" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C23" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D23" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E23" s="14" t="n">
+      <x:c r="C23" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D23" s="14" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E23" s="17" t="n">
         <x:v>0.000847766203703704</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A24" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B24" s="16" t="s">
+    <x:row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A24" s="19" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B24" s="19" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C24" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D24" s="16" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E24" s="17" t="n">
+      <x:c r="C24" s="19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D24" s="19" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E24" s="20" t="n">
         <x:v>0.00027681712962963</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A25" s="16" t="s">
+    <x:row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A25" s="19" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B25" s="16" t="s">
+      <x:c r="B25" s="19" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C25" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D25" s="16" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E25" s="17" t="n">
+      <x:c r="C25" s="19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D25" s="19" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E25" s="20" t="n">
         <x:v>0.000242094907407407</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A26" s="16" t="s">
+    <x:row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A26" s="19" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B26" s="16" t="s">
+      <x:c r="B26" s="19" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C26" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D26" s="16" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E26" s="17" t="n">
+      <x:c r="C26" s="19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D26" s="19" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E26" s="20" t="n">
         <x:v>0.000195219907407407</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A27" s="16" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B27" s="16" t="s">
+    <x:row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A27" s="19" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B27" s="19" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C27" s="16" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D27" s="16" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E27" s="17" t="n">
+      <x:c r="C27" s="19" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D27" s="19" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E27" s="20" t="n">
         <x:v>0.000261851851851852</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A28" s="16" t="s">
+    <x:row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A28" s="19" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B28" s="16" t="s">
+      <x:c r="B28" s="19" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C28" s="16" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D28" s="16" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E28" s="17" t="n">
+      <x:c r="C28" s="19" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D28" s="19" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E28" s="20" t="n">
         <x:v>0.000264502314814815</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A29" s="16" t="s">
+    <x:row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A29" s="19" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B29" s="16" t="s">
+      <x:c r="B29" s="19" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C29" s="16" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D29" s="16" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E29" s="17" t="n">
+      <x:c r="C29" s="19" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D29" s="19" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E29" s="20" t="n">
         <x:v>0.000261539351851852</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A30" s="16" t="s">
+    <x:row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A30" s="19" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B30" s="16" t="s">
+      <x:c r="B30" s="19" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C30" s="16" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D30" s="16" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E30" s="17" t="n">
+      <x:c r="C30" s="19" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D30" s="19" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E30" s="20" t="n">
         <x:v>0.000321967592592593</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A31" s="16" t="s">
+    <x:row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A31" s="19" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B31" s="16" t="s">
+      <x:c r="B31" s="19" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C31" s="16" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D31" s="16" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E31" s="17" t="n">
+      <x:c r="C31" s="19" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D31" s="19" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E31" s="20" t="n">
         <x:v>0.000322384259259259</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A32" s="16" t="s">
+    <x:row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A32" s="19" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B32" s="16" t="s">
+      <x:c r="B32" s="19" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C32" s="16" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D32" s="16" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E32" s="17" t="n">
+      <x:c r="C32" s="19" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D32" s="19" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E32" s="20" t="n">
         <x:v>0.000321967592592593</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A33" s="16" t="s">
+    <x:row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A33" s="19" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B33" s="16" t="s">
+      <x:c r="B33" s="19" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C33" s="16" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D33" s="16" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E33" s="17" t="n">
+      <x:c r="C33" s="19" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D33" s="19" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E33" s="20" t="n">
         <x:v>0.000320208333333333</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A34" s="16" t="s">
+    <x:row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A34" s="19" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B34" s="16" t="s">
+      <x:c r="B34" s="19" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C34" s="16" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D34" s="16" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E34" s="17" t="n">
+      <x:c r="C34" s="19" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D34" s="19" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E34" s="20" t="n">
         <x:v>0.000320613425925926</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A35" s="16" t="s">
+    <x:row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A35" s="19" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B35" s="16" t="s">
+      <x:c r="B35" s="19" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C35" s="16" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D35" s="16" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E35" s="17" t="n">
+      <x:c r="C35" s="19" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D35" s="19" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E35" s="20" t="n">
         <x:v>0.000261527777777778</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A36" s="11" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B36" s="11" t="s">
+    <x:row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A36" s="21" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B36" s="21" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C36" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D36" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E36" s="18" t="n">
+      <x:c r="C36" s="21" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D36" s="21" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E36" s="22" t="n">
         <x:v>0.00028625</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A37" s="11" t="s">
+    <x:row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A37" s="21" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B37" s="11" t="s">
+      <x:c r="B37" s="21" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C37" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D37" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E37" s="12" t="n">
+      <x:c r="C37" s="21" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D37" s="21" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E37" s="23" t="n">
         <x:v>0.000264571759259259</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A38" s="11" t="s">
+    <x:row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A38" s="21" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B38" s="11" t="s">
+      <x:c r="B38" s="21" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C38" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D38" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E38" s="12" t="n">
+      <x:c r="C38" s="21" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D38" s="21" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E38" s="23" t="n">
         <x:v>0.000215219907407407</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A39" s="11" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B39" s="11" t="s">
+    <x:row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A39" s="21" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B39" s="21" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C39" s="11" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D39" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E39" s="12" t="n">
+      <x:c r="C39" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D39" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E39" s="23" t="n">
         <x:v>0.000280983796296296</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A40" s="11" t="s">
+    <x:row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A40" s="21" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B40" s="11" t="s">
+      <x:c r="B40" s="21" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C40" s="11" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D40" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E40" s="12" t="n">
+      <x:c r="C40" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D40" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E40" s="23" t="n">
         <x:v>0.000284710648148148</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A41" s="11" t="s">
+    <x:row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A41" s="21" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B41" s="11" t="s">
+      <x:c r="B41" s="21" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C41" s="11" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D41" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E41" s="12" t="n">
+      <x:c r="C41" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D41" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E41" s="23" t="n">
         <x:v>0.000282164351851852</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A42" s="11" t="s">
+    <x:row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A42" s="21" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B42" s="11" t="s">
+      <x:c r="B42" s="21" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C42" s="11" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D42" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E42" s="12" t="n">
+      <x:c r="C42" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D42" s="21" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E42" s="23" t="n">
         <x:v>0.000343738425925926</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A43" s="11" t="s">
+    <x:row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A43" s="21" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B43" s="11" t="s">
+      <x:c r="B43" s="21" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C43" s="11" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D43" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E43" s="12" t="n">
+      <x:c r="C43" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D43" s="21" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E43" s="23" t="n">
         <x:v>0.00034369212962963</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A44" s="11" t="s">
+    <x:row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A44" s="21" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B44" s="11" t="s">
+      <x:c r="B44" s="21" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C44" s="11" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D44" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E44" s="12" t="n">
+      <x:c r="C44" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D44" s="21" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E44" s="23" t="n">
         <x:v>0.000341828703703704</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A45" s="11" t="s">
+    <x:row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A45" s="21" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B45" s="11" t="s">
+      <x:c r="B45" s="21" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C45" s="11" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D45" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E45" s="12" t="n">
+      <x:c r="C45" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D45" s="21" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E45" s="23" t="n">
         <x:v>0.000339479166666667</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A46" s="11" t="s">
+    <x:row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A46" s="21" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B46" s="11" t="s">
+      <x:c r="B46" s="21" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C46" s="11" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D46" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E46" s="12" t="n">
+      <x:c r="C46" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D46" s="21" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E46" s="23" t="n">
         <x:v>0.000341365740740741</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A47" s="11" t="s">
+    <x:row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A47" s="21" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B47" s="11" t="s">
+      <x:c r="B47" s="21" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C47" s="11" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D47" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E47" s="12" t="n">
+      <x:c r="C47" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D47" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E47" s="23" t="n">
         <x:v>0.000281122685185185</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:7">
-      <x:c r="A48" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B48" s="10" t="s">
+    <x:row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A48" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B48" s="24" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C48" s="10" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D48" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E48" s="19" t="n">
+      <x:c r="C48" s="24" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D48" s="24" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E48" s="25" t="n">
         <x:v>0.000274560185185185</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:7">
-      <x:c r="A49" s="10" t="s">
+    <x:row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A49" s="24" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B49" s="10" t="s">
+      <x:c r="B49" s="24" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C49" s="10" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D49" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E49" s="19" t="n">
+      <x:c r="C49" s="24" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D49" s="24" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E49" s="25" t="n">
         <x:v>0.000266851851851852</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:7">
-      <x:c r="A50" s="10" t="s">
+    <x:row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A50" s="24" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B50" s="10" t="s">
+      <x:c r="B50" s="24" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C50" s="10" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D50" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E50" s="19" t="n">
+      <x:c r="C50" s="24" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D50" s="24" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E50" s="25" t="n">
         <x:v>0.000238969907407407</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:7">
-      <x:c r="A51" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B51" s="10" t="s">
+    <x:row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A51" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B51" s="24" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C51" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D51" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E51" s="19" t="n">
+      <x:c r="C51" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D51" s="24" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E51" s="25" t="n">
         <x:v>0.000286261574074074</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:7">
-      <x:c r="A52" s="10" t="s">
+    <x:row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A52" s="24" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B52" s="10" t="s">
+      <x:c r="B52" s="24" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C52" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D52" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E52" s="19" t="n">
+      <x:c r="C52" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D52" s="24" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E52" s="25" t="n">
         <x:v>0.000284236111111111</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:7">
-      <x:c r="A53" s="10" t="s">
+    <x:row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A53" s="24" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B53" s="10" t="s">
+      <x:c r="B53" s="24" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C53" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D53" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E53" s="19" t="n">
+      <x:c r="C53" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D53" s="24" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E53" s="25" t="n">
         <x:v>0.000283576388888889</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:7">
-      <x:c r="A54" s="10" t="s">
+    <x:row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A54" s="24" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B54" s="10" t="s">
+      <x:c r="B54" s="24" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C54" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D54" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E54" s="19" t="n">
+      <x:c r="C54" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D54" s="24" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E54" s="25" t="n">
         <x:v>0.000345648148148148</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:7">
-      <x:c r="A55" s="10" t="s">
+    <x:row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A55" s="24" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B55" s="10" t="s">
+      <x:c r="B55" s="24" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C55" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D55" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E55" s="19" t="n">
+      <x:c r="C55" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D55" s="24" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E55" s="25" t="n">
         <x:v>0.000345763888888889</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:7">
-      <x:c r="A56" s="10" t="s">
+    <x:row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A56" s="24" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B56" s="10" t="s">
+      <x:c r="B56" s="24" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C56" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D56" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E56" s="19" t="n">
+      <x:c r="C56" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D56" s="24" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E56" s="25" t="n">
         <x:v>0.000344097222222222</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:7">
-      <x:c r="A57" s="10" t="s">
+    <x:row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A57" s="24" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B57" s="10" t="s">
+      <x:c r="B57" s="24" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C57" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D57" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E57" s="19" t="n">
+      <x:c r="C57" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D57" s="24" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E57" s="25" t="n">
         <x:v>0.000343043981481482</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:7">
-      <x:c r="A58" s="10" t="s">
+    <x:row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A58" s="24" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B58" s="10" t="s">
+      <x:c r="B58" s="24" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C58" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D58" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E58" s="19" t="n">
+      <x:c r="C58" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D58" s="24" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E58" s="25" t="n">
         <x:v>0.000345717592592593</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:7">
-      <x:c r="A59" s="10" t="s">
+    <x:row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A59" s="24" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B59" s="10" t="s">
+      <x:c r="B59" s="24" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C59" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D59" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E59" s="19" t="n">
+      <x:c r="C59" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D59" s="24" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E59" s="25" t="n">
         <x:v>0.00028380787037037</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A60" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B60" s="24" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C60" s="24" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D60" s="24" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E60" s="25" t="n">
+        <x:v>0.000287280092592593</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A61" s="24" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B61" s="24" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C61" s="24" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D61" s="24" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E61" s="25" t="n">
+        <x:v>0.000239560185185185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A62" s="24" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B62" s="24" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C62" s="24" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D62" s="24" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E62" s="25" t="n">
+        <x:v>0.000190601851851852</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A63" s="24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B63" s="24" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C63" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D63" s="24" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E63" s="25" t="n">
+        <x:v>0.000264270833333333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A64" s="24" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B64" s="24" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C64" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D64" s="24" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E64" s="25" t="n">
+        <x:v>0.000263356481481481</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A65" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B65" s="26" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C65" s="26" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D65" s="26" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E65" s="27" t="n">
+        <x:v>0.000282083333333333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A66" s="26" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B66" s="26" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C66" s="26" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D66" s="26" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E66" s="27" t="n">
+        <x:v>0.000240891203703704</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A67" s="26" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B67" s="26" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C67" s="26" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D67" s="26" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E67" s="27" t="n">
+        <x:v>0.0002121875</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A68" s="26" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B68" s="26" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C68" s="26" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D68" s="26" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E68" s="27" t="n">
+        <x:v>0.00026599537037037</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A69" s="26" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B69" s="26" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C69" s="26" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D69" s="26" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E69" s="27" t="n">
+        <x:v>0.000264351851851852</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A70" s="21" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B70" s="21" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C70" s="21" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D70" s="21" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E70" s="23" t="n">
+        <x:v>0.000242523148148148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A71" s="21" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B71" s="21" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C71" s="21" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D71" s="21" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E71" s="23" t="n">
+        <x:v>0.000242037037037037</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A72" s="21" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B72" s="21" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C72" s="21" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D72" s="21" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E72" s="23" t="n">
+        <x:v>0.000195428240740741</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A73" s="21" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B73" s="21" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C73" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D73" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E73" s="23" t="n">
+        <x:v>0.00026599537037037</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A74" s="21" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B74" s="21" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C74" s="21" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D74" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E74" s="23" t="n">
+        <x:v>0.000265775462962963</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:5">
+      <x:c r="A75" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B75" s="14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C75" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D75" s="14" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E75" s="15" t="n">
+        <x:v>0.000279131944444444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:5">
+      <x:c r="A76" s="14" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B76" s="14" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C76" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D76" s="14" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E76" s="15" t="n">
+        <x:v>0.0002359375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:5">
+      <x:c r="A77" s="14" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B77" s="14" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C77" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D77" s="14" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E77" s="15" t="n">
+        <x:v>0.000186701388888889</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:5">
+      <x:c r="A78" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B78" s="14" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C78" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D78" s="14" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E78" s="15" t="n">
+        <x:v>0.000258969907407407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:5">
+      <x:c r="A79" s="14" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B79" s="14" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C79" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D79" s="14" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E79" s="15" t="n">
+        <x:v>0.000258761574074074</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:5">
+      <x:c r="A80" s="14" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B80" s="14" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C80" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D80" s="14" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E80" s="15" t="n">
+        <x:v>0.000257384259259259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:5">
+      <x:c r="A81" s="14" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B81" s="14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C81" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D81" s="14" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E81" s="15" t="n">
+        <x:v>0.000319039351851852</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:5">
+      <x:c r="A82" s="14" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B82" s="14" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C82" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D82" s="14" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E82" s="15" t="n">
+        <x:v>0.000317719907407407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:5">
+      <x:c r="A83" s="14" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B83" s="14" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C83" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D83" s="14" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E83" s="15" t="n">
+        <x:v>0.00031693287037037</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:5">
+      <x:c r="A84" s="14" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B84" s="14" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C84" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D84" s="14" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E84" s="15" t="n">
+        <x:v>0.000330648148148148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:5">
+      <x:c r="A85" s="14" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B85" s="14" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C85" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D85" s="14" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E85" s="15" t="n">
+        <x:v>0.000317256944444444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:5">
+      <x:c r="A86" s="14" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B86" s="14" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C86" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D86" s="14" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E86" s="15" t="n">
+        <x:v>0.0002575</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
